--- a/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
@@ -3962,7 +3962,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3029317074", "https://openalex.org/W4321616443", "https://openalex.org/W2300788406", "https://openalex.org/W2979498695", "https://openalex.org/W4284988614", "https://openalex.org/W3003691366", "https://openalex.org/W2064194978", "https://openalex.org/W4310598712", "https://openalex.org/W2548329125", "https://openalex.org/W2092967950")</t>
+          <t>c("https://openalex.org/W2023241971", "https://openalex.org/W4390152465", "https://openalex.org/W2056858597", "https://openalex.org/W4212987163", "https://openalex.org/W4388339558", "https://openalex.org/W4390511884", "https://openalex.org/W2909761890", "https://openalex.org/W4379281726", "https://openalex.org/W4389229369", "https://openalex.org/W4284988614")</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2261380506", "https://openalex.org/W2238908464", "https://openalex.org/W1761437704", "https://openalex.org/W2780102934", "https://openalex.org/W3027230005", "https://openalex.org/W3016001916", "https://openalex.org/W2115992563", "https://openalex.org/W2989668020", "https://openalex.org/W2105742128", "https://openalex.org/W3016304757")</t>
+          <t>c("https://openalex.org/W2953102189", "https://openalex.org/W2618406201", "https://openalex.org/W2565995904", "https://openalex.org/W2293197596", "https://openalex.org/W2998674080", "https://openalex.org/W2281217800", "https://openalex.org/W2766491241", "https://openalex.org/W155792083", "https://openalex.org/W1519874714", "https://openalex.org/W1968964438")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1650,22 +1650,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S186546955</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2152-2669</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1830,22 +1830,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Avicenna Journal of Medicine</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S2764417561</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2231-0770</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2120209201", "https://openalex.org/W2185000638", "https://openalex.org/W2466629101", "https://openalex.org/W3146331961", "https://openalex.org/W2107707269", "https://openalex.org/W2022414344", "https://openalex.org/W2126381453", "https://openalex.org/W2032270873", "https://openalex.org/W2096401073", "https://openalex.org/W2033331561")</t>
+          <t>c("https://openalex.org/W2096401073", "https://openalex.org/W3146331961", "https://openalex.org/W2033331561", "https://openalex.org/W3114922805", "https://openalex.org/W2419073828", "https://openalex.org/W2792196017", "https://openalex.org/W1970421407", "https://openalex.org/W170943972", "https://openalex.org/W2047981850", "https://openalex.org/W2051555008")</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>School of Resources and Environmental Engineering, Anhui University, Hefei, 230601, Anhui Province, China; State Key Laboratory of Grassland Agro-Ecosystems, Center for Grassland Microbiome, College of Pastoral Agriculture Science and Technology, Lanzhou University, Lanzhou, 730000, China; Anhui University of Science and Technology, Huainan, Anhui, 232001, China; Department of Environmental Sciences, COMSATS University Islamabad Vehari-Campus, Vehari, 61100, Pakistan; Department of Agronomy, Faculty of Agriculture and Environment, The Islamia University of Bahawalpur, 63100, Pakistan; Department of Environmental Sciences, Shaheed Benazir Bhutto University Sheringal, Dir (Upper) Khyber Pakhtunkhwa, 18000, Pakistan; School of Biological Sciences, The University of Western Australia, 35 Stirling Highway, Perth, WA, 6009, Australia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307987101</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Remediation technologies for acid mine drainage: Recent trends and future perspectives</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Chemosphere</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chemosphere.2022.137089</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36336014</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chemosphere.2022.137089</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, University of Agriculture, Peshawar, Pakistan; Department of Environmental Science, COMSATS University, Islamabad, Vehari Campus, Vehari, Pakistan; Center for Scientific and Technical Research on Arid Regions, Biophysical Environment Station, Touggourt, Algeria; Department of Plant and Wildlife Sciences, Brigham Young University, Provo, Utah, United States; Department of Environmental Science, COMSATS University, Islamabad, Vehari Campus, Vehari, Pakistan; Soil and Environmental Sciences Division, Nuclear Institute for Agriculture and Biology, Faisalabad, Pakistan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317728289</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Integrated use of phosphorus fertilizer and farmyard manure improves wheat productivity by improving soil quality and P availability in calcareous soil under subhumid conditions</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in Plant Science</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpls.2023.1034421</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36755699</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpls.2023.1034421</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari, Pakistan; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323363968</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The occurrence, characteristics, and adaptation of A-to-I RNA editing in bacteria: A review</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frontiers in Microbiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmicb.2023.1143929</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36960293</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmicb.2023.1143929</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Geology, Faculty of Geography and Geology, "Alexandru Ioan Cuza" University of Iaşi, 700050 Iaşi, Romania.; Romanian Academy, Filial of Iaşi, Branch of Geography, 700050 Iaşi, Romania.; Department of Environmental Engineering and Management, "Cristofor Simionescu" Faculty of Chemical Engineering and Environmental Protection, Technical University Gheorghe Asachi of Iasi, 700050 Iaşi, Romania.; Department of Environmental Sciences, COMSATS University Islamabad, Vehari 61100, Pakistan.; Department of Environmental Engineering and Management, “Cristofor Simionescu” Faculty of Chemical Engineering and Environmental Protection, Technical University Gheorghe Asachi of Iasi, 700050 Iaşi, Romania</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378516826</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Isotherm and Kinetic Study of Metal Ions Sorption on Mustard Waste Biomass Functionalized with Polymeric Thiocarbamate</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Polymers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/polym15102301</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37242876</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/polym15102301</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Agronomy, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Department of Agronomy, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Center for Scientific and Technical Research on Arid Regions, Biophysical Environment Station, Touggourt 30240, Algeria; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad 45550, Pakistan; Department of Chemical, Pharmaceutical and Agricultural Sciences (DOCPAS), University of Ferrara, 44121 Ferrara, Italy; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad 45550, Pakistan; Institute of Plant Nutrition and Soil Science, Kiel University, Hermann-Rodewald-Strasse 2, 24118 Kiel, Germany; Department of Agronomy, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Department of Agriculture, Food and Environment (DAFE), University of Pisa, 56124 Pisa, Italy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323318513</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Composting Sugarcane Filter Mud with Different Sources Differently Benefits Sweet Maize</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Agronomy</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/agronomy13030748</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/agronomy13030748</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine, Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Medicine, Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Medicine, Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Medicine, Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Medicine, The University of Arizona, Tucson, AZ; Department of Medicine, Mohtarma Benazir Bhutto Shaheed Medical College, Mirpur, Azad and Jammu Kashmir; Department of Medicine, King Edward Medical University, Lahore, Pakistan; Dow University of Health Sciences, Karachi, Pakistan; Lehigh Valley Heart Specialists, Lehigh Valley Health Network, Allentown, PA; Montefiore New Rochelle Hospital, New Rochelle, NY; Mayo Clinic, Rochester, MN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310253330</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Efficacy of Catheter Ablation for Atrial Fibrillation in Hypertrophic Cardiomyopathy: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Current Problems in Cardiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cpcardiol.2022.101524</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36455792</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cpcardiol.2022.101524</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Internal Medicine, University of Pittsburgh Medical Center, Mckeesport, PA; Sharif Medical and Dental College, Lahore, Pakistan; Sharif Medical and Dental College, Lahore, Pakistan; Loyola Medicine MacNeal Hospital, Berwyn, IL; Rawalpindi Medical University, Rawalpindi, Pakistan; Division of Pathology, ICAR-Indian Veterinary Research Institute (IVRI), Bareilly, Uttar Pradesh, India; Maroof International Hospital, Islamabad, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; School of Public Health, University of Pittsburgh, Pittsburgh, PA; Department of Medicine, The University of Arizona, Tucson, AZ; Rawalpindi Medical University, Rawalpindi, Pakistan; Department of Hematology and Medical Oncology, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316194093</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Total Body Irradiation Versus Chemotherapy Conditioning in Pediatric Acute Lymphoblastic Leukemia Patients Undergoing Hematopoietic Stem Cell Transplant: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2023.01.004</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36725384</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2023.01.004</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>North Mississippi Medical Center, Tupelo, Mississippi, United States; University of Pittsburgh Medical Center, McKeesport, Pennsylvania, United States; TidalHealth, Salisbury, Maryland, United States; King Edward Medical University, Lahore, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; Dow Medical College, Karachi, Pakistan; Allama Iqbal Medical College, Lahore, Pakistan; Rawal Institute of Health Sciences, Islamabad, Pakistan; Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Internal Medicine, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360895697</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Pneumocystis jiroveci Pneumonia: A Review of Management in Human Immunodeficiency Virus (HIV) and Non-HIV Immunocompromised Patients</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Avicenna Journal of Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1764375</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36969352</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1764375</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; International Center for Climate Change, Food Security &amp; Sustainability (ICCFS) &amp; Department of Agronomy, Faculty of Agriculture and Environment, The Islamia University of Bahawalpur (IUB), Bahawalpur, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Agronomy, Bahauddin Zakariya University, Multan, Pakistan; Department of Agricultural Engineering, Bahauddin Zakariya University, Multan, Pakistan; Institute of Crop Science and Resource Conservation (INRES), Crop Science Group, University Bonn, Bonn, Germany; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Humanities, COMSATS University Islamabad, Vehari, Pakistan; Bahauddin Zakariya University, Multan, Pakistan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380538320</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sustainable Development Goals and Governments’ Roles for Social Protection</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-26692-8_12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-26692-8_12</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Faculty of Agriculture and Environmental Sciences, University of Rostock, Rostock, Germany</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385075009</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Urban flood risk assessment using AHP and geospatial techniques in swat Pakistan</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-07-22</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>SN Applied Sciences</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s42452-023-05445-1</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s42452-023-05445-1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Punjab, 61100, Pakistan; Functional Materials Laboratory (FML), School of Materials Science and Engineering, Xi'an University of Architecture and Technology, Xi'an, Shaanxi, 710055, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Punjab, 61100, Pakistan; Department of Architectural Engineering, College of Engineering, UAE University, United Arab Emirates; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Punjab, 61100, Pakistan; Functional Materials Laboratory (FML), School of Materials Science and Engineering, Xi'an University of Architecture and Technology, Xi'an, Shaanxi, 710055, China; Department of Chemistry, College of Science, King Saud University, Riyadh, 11451, Saudi Arabia; Department of Chemistry, College of Science, King Saud University, Riyadh, 11451, Saudi Arabia; Faculty of Engineering and Technology, Future University in Egypt, New Cairo, 11835, Egypt; Department of Physics, Saveetha School of Engineering, Saveetha Institute of Medical and Technical Sciences (SIMATS), Thandalam, Chennai, 602 105, India; Research Institute of Cell Culture, Yeungnam University, 280 Daehak-Ro, Gyeongsan, Gyeongbuk, 38541, South Korea; School of Chemical Engineering, Yeungnam University, 280 Daehak-Ro, Gyeongsan, Gyeongbuk, 38541, South Korea; Department of Organic Chemistry, University of Cordoba, Spain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385754226</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sugarcane-bagasse-ash in enhanced mesophilic Co-digestion for biogas and nutrient recovery: A concept of developing rural circular bioeconomy</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Environmental Research</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envres.2023.116691</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37574097</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envres.2023.116691</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>State Key Laboratory of Herbage Improvement and Grassland Agro-ecosystems, Center for Grassland Microbiome, and College of Pastoral Agriculture Science and Technology, Lanzhou University, Lanzhou 730000, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Guangdong Key Laboratory of Environmental Pollution and Health, School of Environment, Jinan University, Guangzhou 510632, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; State Key Laboratory of Mining Response and Disaster Prevention and Control in Deep Coal Mines, Anhui University of Science &amp; Technology, Huainan, Anhui Province, China; State Key Laboratory of Herbage Improvement and Grassland Agro-ecosystems, Center for Grassland Microbiome, and College of Pastoral Agriculture Science and Technology, Lanzhou University, Lanzhou 730000, China; State Key Laboratory of Herbage Improvement and Grassland Agro-ecosystems, Center for Grassland Microbiome, and College of Pastoral Agriculture Science and Technology, Lanzhou University, Lanzhou 730000, China</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388232169</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Plant growth promoting rhizobacteria induced metal and salt stress tolerance in Brassica juncea through ion homeostasis</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Ecotoxicology and Environmental Safety</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ecoenv.2023.115657</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37924800</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ecoenv.2023.115657</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sidra Rahman, Iftikhar Ahmad, Muhammad Nafees</t>
+          <t>Bushra Ghafoor, Shameera Shaik Masthan, Maha Hameed, Hafiza Huda Akhtar, Ayesha Khalid, Sana Ghafoor, Hassan min Allah, Mohammad Mohsin Arshad, Iqra Iqbal, Ahmad Iftikhar, Muhammad Husnain, Faiz Anwer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380148986</t>
+          <t>Department of Internal Medicine, Capital Health Medical Center, Trenton, USA; University of Cincinnati, Cincinnati, USA; Department of Internal Medicine, Florida State University/Sarasota Memorial Hospital, Sarasota, USA; King Edward Medical University, Lahore, Pakistan; Allama Iqbal Medical College, Lahore, Pakistan; Department of Medicine and Endocrinology, Forth Valley Royal Hospital, Larbert, UK; Multan Medical and Dental College, Multan, Pakistan; Hamad Medical Corporation, Doha, Qatar; Clements High School, Sugarland, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Medicine, University of Arizona, Tucson, USA; Taussig Cancer Center, Cleveland Clinic, Cleveland, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mitigation of heavy metal stress in maize (Zea mays L.) through application of silicon nanoparticles</t>
+          <t>https://openalex.org/W4383371899</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>Waldenström macroglobulinemia: a review of pathogenesis, current treatment, and future prospects</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Biocatalysis and Agricultural Biotechnology</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Annals of Hematology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bcab.2023.102757</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1007/s00277-023-05345-9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bcab.2023.102757</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37414960</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s00277-023-05345-9</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bushra Ghafoor, Shameera Shaik Masthan, Maha Hameed, Hafiza Huda Akhtar, Ayesha Khalid, Sana Ghafoor, Hassan min Allah, Mohammad Mohsin Arshad, Iqra Iqbal, Ahmad Iftikhar, Muhammad Husnain, Faiz Anwer</t>
+          <t>Anam Noor, Khurram Ziaf, Muhammad Naveed, Khuram Shehzad Khan, M. A. Ghani, Iftikhar Ahmad, Raheel Anwar, Manzer H. Siddiqui, Amir Shakeel, Azeem Iqbal Khan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383371899</t>
+          <t>Department of Horticulture, Bahauddin Zakariya University, Multan 60800, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; College of Resources and Environmental Sciences, China Agricultural University, Beijing 100193, China; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Botany and Microbiology, College of Science, King Saud University, Riyadh 11451, Saudi Arabia; Department of Plant Breeding and Genetics, University of Agriculture, Faisalabad 38040, Pakistan; Department of Plant Breeding and Genetics, University of Agriculture, Faisalabad 38040, Pakistan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Waldenström macroglobulinemia: a review of pathogenesis, current treatment, and future prospects</t>
+          <t>https://openalex.org/W4386068204</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>L-Tryptophan-Dependent Auxin-Producing Plant-Growth-Promoting Bacteria Improve Seed Yield and Quality of Carrot by Altering the Umbel Order</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Annals of Hematology</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Horticulturae</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00277-023-05345-9</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/horticulturae9090954</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37414960</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00277-023-05345-9</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/horticulturae9090954</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anam Noor, Khurram Ziaf, Muhammad Naveed, Khuram Shehzad Khan, M. A. Ghani, Iftikhar Ahmad, Raheel Anwar, Manzer H. Siddiqui, Amir Shakeel, Azeem Iqbal Khan</t>
+          <t>Khurram Ziaf, Hafiz Muhammad Talha, M. A. Ghani, Iftikhar Ahmad, Raheel Anwar, Basharat Ali, Yasir Majeed, Amir Shakeel, Mudassar Iqbal, Abbu Zaid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386068204</t>
+          <t>Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Department of Agricultural Engineering, Khwaja Fareed University of Engineering and Information Technology, Rahim yar Khan; Institute of Horticultural Sciences, University of Agriculture, Faisalabad, Pakistan; Department of Plant Breeding and Genetics, University of Agriculture, Faisalabad, Pakistan; Vegetable Research Institute, Ayub Agricultural Research Institute, Faisalabad, Pakistan; Department of Botany, Govt. Gandhi Memorial Science College, Cluster University, Canal Road 180001, Jammu, Jammu and Kashmir India; Plant Physiology and Biochemistry Section, Department of Botany, Aligarh Muslim University, Aligarh 202002 India</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L-Tryptophan-Dependent Auxin-Producing Plant-Growth-Promoting Bacteria Improve Seed Yield and Quality of Carrot by Altering the Umbel Order</t>
+          <t>https://openalex.org/W4386364404</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>Differential accumulation pattern of cadmium in plant parts of pea varieties in response to varying cadmium levels</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Horticulturae</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>South African Journal of Botany</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/horticulturae9090954</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.sajb.2023.08.044</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/horticulturae9090954</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.sajb.2023.08.044</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Khurram Ziaf, Hafiz Muhammad Talha, M. A. Ghani, Iftikhar Ahmad, Raheel Anwar, Basharat Ali, Yasir Majeed, Amir Shakeel, Mudassar Iqbal, Abbu Zaid</t>
+          <t>Sidra Rahman, Iftikhar Ahmad, Muhammad Nafees</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386364404</t>
+          <t>Department of Botany, Islamia College Peshawar, KP, Pakistan; Department of Botany, Islamia College Peshawar, KP, Pakistan; Department of Botany, University of Peshawar, KP, Pakistan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Differential accumulation pattern of cadmium in plant parts of pea varieties in response to varying cadmium levels</t>
+          <t>https://openalex.org/W4380148986</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Mitigation of heavy metal stress in maize (Zea mays L.) through application of silicon nanoparticles</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>South African Journal of Botany</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Biocatalysis and Agricultural Biotechnology</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.sajb.2023.08.044</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.bcab.2023.102757</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.sajb.2023.08.044</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.bcab.2023.102757</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Chemical, Pharmaceutical and Agricultural Sciences, University of Ferrara, Via Luigi Borsari n. 46, 44121 Ferrara, Italy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367182229</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Trace Metals in Rice Grains and Their Associated Health Risks from Conventional and Non-Conventional Rice Growing Areas in Punjab-Pakistan</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sustainability</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su15097259</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su15097259</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Department of Agronomy, Faculty of Agriculture, College of Agriculture, University of Sargodha, Sargodha 40100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Biochemistry, Bahauddin Zakariya University, Multan 60000, Pakistan; Department of Biochemistry and Biotechnology, The Women University Multan, Multan 66000, Pakistan; Department of Chemical, Pharmaceutical and Agricultural Sciences (DOCPAS), University of Ferrara, 44121 Ferrara, Italy; Department of Agricultural and Forestry Sciences (DAFNE), University of Tuscia, 01100 Viterbo, Italy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367854410</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Nitrogen Mineralization in Texturally Contrasting Soils Subjected to Different Organic Amendments under Semi-Arid Climates</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-04-29</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/land12050989</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/land12050989</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Rawalpindi Medical University, Rawalpindi, Pakistan; Aurora St. Luke's Medical Center, Milwaukee, WI; Rawalpindi Medical University, Rawalpindi, Pakistan; Deccan College of Medical Sciences, Hyderabad, India; Louis A Weiss Memorial Hospital, Chicago, IL; Rawalpindi Medical University, Rawalpindi, Pakistan; King Edward Medical University Pakistan, Lahore, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; Holy Family Hospital, Rawalpindi, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; ICAR- Indian Veterinary Research Institute (IVRI), Uttar Pradesh, India; North Shore University Hospital, Manhasset, NY; AFBMTC/NIBMT, Rawalpindi, Pakistan; University of Arizona Department of Neuroscience, Tucson, AZ; Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379281726</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Busulfan versus treosulfan conditioning for acute myeloid leukemia and myelodysplastic syndrome: A systematic review and meta-analysis.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e19032</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e19032</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Centre for Climate Research and Development, COMSATS University Islamabad, Islamabad 45550, Pakistan; Department of Plant Production, College of Food and Agriculture Sciences, King Saud University, P.O. Box 2460, Riyadh 11451, Saudi Arabia; Department of Regional Geographical Analysis and Physical Geography, University of Granada, 18071 Granada, Spain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385358518</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Evaluation of Phytoremediation Potential of an Aquatic Macrophyte (Eichhornia crassipes) in Wastewater Treatment</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sustainability</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su151511533</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su151511533</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, University of Agriculture, Peshawar, Pakistan; Department of Environmental Science, COMSATS University Islamabad, Vehari, Pakistan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385658959</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Treatment Methods for Lead Removal from Wastewater</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Environmental science and engineering</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-37327-5_10</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-37327-5_10</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -2164,164 +2274,174 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Iftikhar Ahmad, Muhammad Waseem, Ather Ashraf, Megersa Kebede Leta, Sareer Ahmad, Hafiz Abdul Wahab</t>
+          <t>Adil Mihoub, Iftikhar Ahmad, Emanuele Radicetti</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388758653</t>
+          <t>Center for Scientific and Technical Research on Arid Regions (CRSTRA), Biophysical Environment Station, Touggourt, Algeria; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Chemical, Pharmaceutical and Agricultural Sciences (DOCPAS), University of Ferrara, Ferrara, Italy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hydrological risk assessment for Mangla Dam: compound effects of instant flow and precipitation peaks under climate change, using HEC-RAS and HEC-GeoRAS</t>
+          <t>https://openalex.org/W4389482617</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>Editorial: Alternative fertilizer harnessing plant-microbe interactions (AFPMI) for improved soil and plantnutrient management</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SN Applied Sciences</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>Frontiers in Plant Science</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s42452-023-05579-2</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3389/fpls.2023.1333927</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s42452-023-05579-2</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38126018</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.3389/fpls.2023.1333927</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>editorial</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Adil Mihoub, Iftikhar Ahmad, Emanuele Radicetti</t>
+          <t>Iftikhar Ahmad, Muhammad Waseem, Ather Ashraf, Megersa Kebede Leta, Sareer Ahmad, Hafiz Abdul Wahab</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389482617</t>
+          <t>Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, COMSATS University Islamabad Sahiwal Campus, Sahiwal, Pakistan; Faculty of Agriculture and Environmental Sciences, University of Rostock, Rostock, Germany; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan; Department of Civil Engineering, Ghulam Ishaq Khan Institute of Engineering Sciences and Technology, Topi, Pakistan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Editorial: Alternative fertilizer harnessing plant-microbe interactions (AFPMI) for improved soil and plantnutrient management</t>
+          <t>https://openalex.org/W4388758653</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>Hydrological risk assessment for Mangla Dam: compound effects of instant flow and precipitation peaks under climate change, using HEC-RAS and HEC-GeoRAS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Frontiers in Plant Science</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>SN Applied Sciences</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpls.2023.1333927</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1007/s42452-023-05579-2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38126018</t>
-        </is>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpls.2023.1333927</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>https://doi.org/10.1007/s42452-023-05579-2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
